--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Edad-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,454 +457,494 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda (tasa de respuesta: 99,8%)</t>
+          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>16/24</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>16-24 años</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>1.936347431586341</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2.281861421171159</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.10481649903625</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 2,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 2,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 2,5</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.538727915438501</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1.812285839548363</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.757420931233907</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25/34</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.4642549977935</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>2.871504522219773</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.497560098413671</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>25-34 años</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 3,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 3,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 3,07</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.623809429040296</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>2.845359099570564</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.736983025238752</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35/44</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2.244802904696946</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.434036423809603</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.431036614106532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>3.114640752168327</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>3.402489299274404</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>3.067347235425389</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>35-44 años</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 3,03</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 3,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 2,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>45/54</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>2.567965027851341</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>2.69015873162513</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.627257407926824</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2.083372166635574</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>2.285543290029789</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>2.314232277079808</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>3.02920175497144</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>3.185373628373308</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2.98423762220052</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>45-54 años</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 2,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 3,29</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 2,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55/64</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>2.418252255553838</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>2.830539766654668</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2.626030190663664</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1.962757395823725</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>2.36556121781414</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2.280263663355745</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2.909649908685904</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>3.292868853973659</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>2.983015196152449</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>55-64 años</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 2,56</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 2,86</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 2,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>2.058576903884403</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>2.37783670969512</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>2.231527531974514</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1.665168209328526</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1.990952200239918</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1.948845286308027</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>2.561692128355122</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>2.86322286967363</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>2.582293545946538</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>65-74 años</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 2,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 2,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 2,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>2.112661512947369</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1.938120674739972</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>2.015018201771624</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1.621583402441068</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1.472001034606556</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1.660281779816159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>2.724680519790768</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>2.545855418551608</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>2.414359037149315</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>75 y más años</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 1,75</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 1,51</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 1,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>1.304980638151382</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1.110978869481391</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1.184407287152833</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.9345185050595795</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0.7706791852704555</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0.927004981296074</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>1.751048447323255</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1.5095046489688</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1.487527880264871</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 2,43</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 2,53</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 2,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C25" s="4" t="n">
+        <v>2.244517697844198</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>2.334439706784357</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>2.291884398596254</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>2.065863969263412</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>2.165978272563269</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>2.163755554548394</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>2.430386695742292</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>2.534792770086296</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>2.413241098499201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -952,15 +952,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
